--- a/biology/Médecine/Eumélanine/Eumélanine.xlsx
+++ b/biology/Médecine/Eumélanine/Eumélanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eum%C3%A9lanine</t>
+          <t>Eumélanine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’eumélanine est le type le plus répandu de mélanine tégumentaire. Elle est de couleur brune à noire, alors que le second type, la phéomélanine, est de couleur jaune à rouge présente chez les personnes blondes. Sa présence en quantité importante donne aux téguments une couleur brun foncé ou noire. Son pouvoir de protection contre les dommages causés à l'épiderme par les rayons UV est élevé. Elle est présente naturellement en grande quantité chez les personnes brunes.
 Elle est constituée d’un mélange de macromolécules de 5,6-dihydroxyindole (DHI) et d’acide 5,6-dihydroxyindole-2-carboxylique (DHICA). Ces deux monomères sont formés à partir de la tyrosine en présence de tyrosinase. Comme la phéomélanine, l’eumélanine est synthétisée dans les mélanocytes de la couche basale.
 Tyrosine → DOPA → dopaquinone → leucodopachrome → dopachrome → acide 5,6-dihydroxyindole-2-carboxylique ou 5,6-dihydroxyindole. 
 Ces deux monomères forment chacun des polymères ou des oligomères qui s’agrègent pour constituer le mélange appelé eumélanine.
-L’action de l’enzyme DOPAchrome tautomerase (DCT) détermine le rapport des deux types d’eumélanine DHICA/DHI lors de la synthèse[2].
-Une expérience menée chez les humains de phototype V à VI a montré que l’eumélanine de type DHI est en quantité deux fois plus importante que celle de type DHICA, et que sa proportion augmente encore en cas d’exposition aux UV[3].
-Par contre, chez les rongeurs, la proportion du type DHCIA serait de 60 à 98 %[4].
+L’action de l’enzyme DOPAchrome tautomerase (DCT) détermine le rapport des deux types d’eumélanine DHICA/DHI lors de la synthèse.
+Une expérience menée chez les humains de phototype V à VI a montré que l’eumélanine de type DHI est en quantité deux fois plus importante que celle de type DHICA, et que sa proportion augmente encore en cas d’exposition aux UV.
+Par contre, chez les rongeurs, la proportion du type DHCIA serait de 60 à 98 %.
 Numéro CAS : 12627-86-0.
 </t>
         </is>
